--- a/Docs/Components.xlsx
+++ b/Docs/Components.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24h\Desktop\HK242\Embedded\RFID-Card-Reader\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EB0147-A69B-4FB6-A4F2-1CE7316A3AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,9 +55,6 @@
     <t>Alarming during operation</t>
   </si>
   <si>
-    <t>ATmega328P</t>
-  </si>
-  <si>
     <t>Main MCU</t>
   </si>
   <si>
@@ -101,38 +107,44 @@
   </si>
   <si>
     <t>Real Timer Module</t>
+  </si>
+  <si>
+    <t>ATmega32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF111827"/>
       <name val="Roboto"/>
     </font>
@@ -142,7 +154,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -152,7 +164,13 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
@@ -166,6 +184,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -180,6 +199,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -194,6 +214,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -208,6 +229,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -222,6 +244,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -236,231 +259,217 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Trang tính1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Trang tính1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:E14" displayName="Bảng_1" name="Bảng_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Bảng_1" displayName="Bảng_1" ref="A4:E14">
   <tableColumns count="5">
-    <tableColumn name="STT" id="1"/>
-    <tableColumn name="Name's Component" id="2"/>
-    <tableColumn name="Quantity" id="3"/>
-    <tableColumn name="Purpose" id="4"/>
-    <tableColumn name="Note (if)" id="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name's Component"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quantity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Purpose"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Note (if)"/>
   </tableColumns>
-  <tableStyleInfo name="Trang tính1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Trang tính1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -650,237 +659,248 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="16.38"/>
-    <col customWidth="1" min="4" max="4" width="29.13"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="29.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A5:A14 C5:C14">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A5:A14 C5:C14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(A5),(NOT(OR(NOT(ISERROR(DATEVALUE(A5))), AND(ISNUMBER(A5), LEFT(CELL("format", A5))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>